--- a/spliced/falling/2023-03-25_17-55-15/data_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-55-15/data_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-3.1694655418396</v>
+        <v>-1.70257568359375</v>
       </c>
       <c r="D2" t="n">
-        <v>4.356465816497803</v>
+        <v>5.600172996520996</v>
       </c>
       <c r="E2" t="n">
-        <v>4.929330825805664</v>
+        <v>2.819403648376465</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1142318025231361</v>
+        <v>-0.06894293137722546</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7016296386718748</v>
+        <v>0.4565708637237548</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.02428189354638253</v>
+        <v>-0.01043561432096691</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-2.089807510375977</v>
+        <v>-2.645308017730713</v>
       </c>
       <c r="D3" t="n">
-        <v>4.590486526489258</v>
+        <v>5.044093132019043</v>
       </c>
       <c r="E3" t="n">
-        <v>3.296045064926147</v>
+        <v>3.529041290283203</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1870265710684987</v>
+        <v>-0.1226312004857593</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3141374455557933</v>
+        <v>0.687206427256266</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.07030040708680932</v>
+        <v>-0.03962139785289762</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.39794921875</v>
+        <v>-3.1694655418396</v>
       </c>
       <c r="D4" t="n">
-        <v>4.069095611572266</v>
+        <v>4.356465816497803</v>
       </c>
       <c r="E4" t="n">
-        <v>1.278849601745606</v>
+        <v>4.929330825805664</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2358618444866612</v>
+        <v>-0.1142318025231361</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1830220156245763</v>
+        <v>0.7016296386718748</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.1438248223728607</v>
+        <v>-0.02428189354638253</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-3.00772476196289</v>
+        <v>-2.089807510375977</v>
       </c>
       <c r="D5" t="n">
-        <v>5.029564380645752</v>
+        <v>4.590486526489258</v>
       </c>
       <c r="E5" t="n">
-        <v>1.58430814743042</v>
+        <v>3.296045064926147</v>
       </c>
       <c r="F5" t="n">
-        <v>1.112385630607605</v>
+        <v>-0.1870265710684987</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2183843255043029</v>
+        <v>0.3141374455557933</v>
       </c>
       <c r="H5" t="n">
-        <v>0.607810914516449</v>
+        <v>-0.07030040708680932</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>33.09199142456055</v>
+        <v>0.39794921875</v>
       </c>
       <c r="D6" t="n">
-        <v>-10.01467895507812</v>
+        <v>4.069095611572266</v>
       </c>
       <c r="E6" t="n">
-        <v>-16.84671211242676</v>
+        <v>1.278849601745606</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.630127814080975</v>
+        <v>-0.2358618444866612</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8663087487220751</v>
+        <v>-0.1830220156245763</v>
       </c>
       <c r="H6" t="n">
-        <v>-6.891578257083879</v>
+        <v>-0.1438248223728607</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3.325568199157715</v>
+        <v>-3.00772476196289</v>
       </c>
       <c r="D7" t="n">
-        <v>4.143693923950195</v>
+        <v>5.029564380645752</v>
       </c>
       <c r="E7" t="n">
-        <v>-3.819637060165405</v>
+        <v>1.58430814743042</v>
       </c>
       <c r="F7" t="n">
-        <v>-3.291155205832588</v>
+        <v>1.112385630607605</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5995133320490518</v>
+        <v>0.2183843255043029</v>
       </c>
       <c r="H7" t="n">
-        <v>-2.225110616948866</v>
+        <v>0.607810914516449</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3.224846839904785</v>
+        <v>33.09199142456055</v>
       </c>
       <c r="D8" t="n">
-        <v>1.793932437896728</v>
+        <v>-10.01467895507812</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.69331693649292</v>
+        <v>-16.84671211242676</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.800487955411278</v>
+        <v>-1.630127814080975</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.09544769922892193</v>
+        <v>0.8663087487220751</v>
       </c>
       <c r="H8" t="n">
-        <v>-1.274875779946644</v>
+        <v>-6.891578257083879</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2.882630348205566</v>
+        <v>3.325568199157715</v>
       </c>
       <c r="D9" t="n">
-        <v>4.272110939025879</v>
+        <v>4.143693923950195</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.869328737258911</v>
+        <v>-3.819637060165405</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1234287155999069</v>
+        <v>-3.291155205832588</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.4942069583468969</v>
+        <v>0.5995133320490518</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.08613203631506727</v>
+        <v>-2.225110616948866</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2.976715087890625</v>
+        <v>3.224846839904785</v>
       </c>
       <c r="D10" t="n">
-        <v>6.577001571655273</v>
+        <v>1.793932437896728</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.940046072006226</v>
+        <v>-2.69331693649292</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.5099027951558444</v>
+        <v>-0.800487955411278</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.4140478637483376</v>
+        <v>-0.09544769922892193</v>
       </c>
       <c r="H10" t="n">
-        <v>1.050213085280524</v>
+        <v>-1.274875779946644</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2.454836368560791</v>
+        <v>2.882630348205566</v>
       </c>
       <c r="D11" t="n">
-        <v>4.527934551239014</v>
+        <v>4.272110939025879</v>
       </c>
       <c r="E11" t="n">
-        <v>-2.188196420669556</v>
+        <v>-1.869328737258911</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.6214535633722948</v>
+        <v>0.1234287155999069</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1743511259555818</v>
+        <v>-0.4942069583468969</v>
       </c>
       <c r="H11" t="n">
-        <v>0.645531852419179</v>
+        <v>-0.08613203631506727</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2.034732341766357</v>
+        <v>2.976715087890625</v>
       </c>
       <c r="D12" t="n">
-        <v>4.516598701477051</v>
+        <v>6.577001571655273</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.3588785529136657</v>
+        <v>-1.940046072006226</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.1061547994613655</v>
+        <v>-0.5099027951558444</v>
       </c>
       <c r="G12" t="n">
-        <v>0.01274332404136612</v>
+        <v>-0.4140478637483376</v>
       </c>
       <c r="H12" t="n">
-        <v>0.05855822087162051</v>
+        <v>1.050213085280524</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4.095149040222168</v>
+        <v>2.454836368560791</v>
       </c>
       <c r="D13" t="n">
-        <v>5.130582809448242</v>
+        <v>4.527934551239014</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5939804911613464</v>
+        <v>-2.188196420669556</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5697166919708249</v>
+        <v>-0.6214535633722948</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4329677091704473</v>
+        <v>-0.1743511259555818</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2033163110415139</v>
+        <v>0.645531852419179</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2.312179088592529</v>
+        <v>2.034732341766357</v>
       </c>
       <c r="D14" t="n">
-        <v>5.563103199005127</v>
+        <v>4.516598701477051</v>
       </c>
       <c r="E14" t="n">
-        <v>1.712265014648438</v>
+        <v>-0.3588785529136657</v>
       </c>
       <c r="F14" t="n">
-        <v>1.08963084220886</v>
+        <v>-0.1061547994613655</v>
       </c>
       <c r="G14" t="n">
-        <v>0.7141014933586107</v>
+        <v>0.01274332404136612</v>
       </c>
       <c r="H14" t="n">
-        <v>0.3845396637916556</v>
+        <v>0.05855822087162051</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.977899074554444</v>
+        <v>4.095149040222168</v>
       </c>
       <c r="D15" t="n">
-        <v>4.791732311248779</v>
+        <v>5.130582809448242</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.6301236748695374</v>
+        <v>0.5939804911613464</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9240185154808892</v>
+        <v>0.5697166919708249</v>
       </c>
       <c r="G15" t="n">
-        <v>1.187182711230384</v>
+        <v>0.4329677091704473</v>
       </c>
       <c r="H15" t="n">
-        <v>0.07666358682844371</v>
+        <v>0.2033163110415139</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2.052878379821777</v>
+        <v>2.312179088592529</v>
       </c>
       <c r="D16" t="n">
-        <v>5.11078691482544</v>
+        <v>5.563103199005127</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0908882766962051</v>
+        <v>1.712265014648438</v>
       </c>
       <c r="F16" t="n">
-        <v>0.4859263300895685</v>
+        <v>1.08963084220886</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.0002714759773692066</v>
+        <v>0.7141014933586107</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.3303932597239817</v>
+        <v>0.3845396637916556</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1.723348617553711</v>
+        <v>1.977899074554444</v>
       </c>
       <c r="D17" t="n">
-        <v>5.65248441696167</v>
+        <v>4.791732311248779</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.2401915490627288</v>
+        <v>-0.6301236748695374</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1978694349527355</v>
+        <v>0.9240185154808892</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.3554217517375946</v>
+        <v>1.187182711230384</v>
       </c>
       <c r="H17" t="n">
-        <v>0.06490443150202541</v>
+        <v>0.07666358682844371</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1.41374397277832</v>
+        <v>2.052878379821777</v>
       </c>
       <c r="D18" t="n">
-        <v>6.106224536895752</v>
+        <v>5.11078691482544</v>
       </c>
       <c r="E18" t="n">
-        <v>-1.353671789169312</v>
+        <v>0.0908882766962051</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.01489832335048191</v>
+        <v>0.4859263300895685</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.2175528672006401</v>
+        <v>-0.0002714759773692066</v>
       </c>
       <c r="H18" t="n">
-        <v>0.293826182683309</v>
+        <v>-0.3303932597239817</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1.950338363647461</v>
+        <v>1.723348617553711</v>
       </c>
       <c r="D19" t="n">
-        <v>5.651811122894287</v>
+        <v>5.65248441696167</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.6365897655487061</v>
+        <v>-0.2401915490627288</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.1349672807587516</v>
+        <v>0.1978694349527355</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.006057749191920411</v>
+        <v>-0.3554217517375946</v>
       </c>
       <c r="H19" t="n">
-        <v>0.07683327462938183</v>
+        <v>0.06490443150202541</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1.72843074798584</v>
+        <v>1.41374397277832</v>
       </c>
       <c r="D20" t="n">
-        <v>5.596723556518555</v>
+        <v>6.106224536895752</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.66290283203125</v>
+        <v>-1.353671789169312</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.168751522898674</v>
+        <v>-0.01489832335048191</v>
       </c>
       <c r="G20" t="n">
-        <v>0.04469497253497444</v>
+        <v>-0.2175528672006401</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.09234245866537093</v>
+        <v>0.293826182683309</v>
       </c>
     </row>
     <row r="21">
@@ -1017,50 +1017,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1.581844329833984</v>
+        <v>1.950338363647461</v>
       </c>
       <c r="D21" t="n">
-        <v>5.306270599365234</v>
+        <v>5.651811122894287</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.953785240650177</v>
+        <v>-0.6365897655487061</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.1727900256713232</v>
+        <v>-0.1349672807587516</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.1038810287912686</v>
+        <v>-0.006057749191920411</v>
       </c>
       <c r="H21" t="n">
-        <v>0.06023810141616398</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>2000</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>falling</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>1.586828231811523</v>
-      </c>
-      <c r="D22" t="n">
-        <v>5.404983997344971</v>
-      </c>
-      <c r="E22" t="n">
-        <v>-0.8601570129394531</v>
-      </c>
-      <c r="F22" t="n">
-        <v>-0.09510832776625952</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-0.07622240483760839</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.01844473597076204</v>
+        <v>0.07683327462938183</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-25_17-55-15/data_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-55-15/data_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-1.70257568359375</v>
+        <v>-0.8363723754882812</v>
       </c>
       <c r="D2" t="n">
-        <v>5.600172996520996</v>
+        <v>5.859383583068848</v>
       </c>
       <c r="E2" t="n">
-        <v>2.819403648376465</v>
+        <v>2.452773094177246</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.06894293137722546</v>
+        <v>0.01617096064405302</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4565708637237548</v>
+        <v>-0.001510194632121166</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.01043561432096691</v>
+        <v>0.006719517832001004</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-2.645308017730713</v>
+        <v>-0.9548721313476562</v>
       </c>
       <c r="D3" t="n">
-        <v>5.044093132019043</v>
+        <v>5.95263671875</v>
       </c>
       <c r="E3" t="n">
-        <v>3.529041290283203</v>
+        <v>2.935124397277832</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1226312004857593</v>
+        <v>0.009587190579622892</v>
       </c>
       <c r="G3" t="n">
-        <v>0.687206427256266</v>
+        <v>-0.01432139695518542</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.03962139785289762</v>
+        <v>0.07086037078665362</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-3.1694655418396</v>
+        <v>-1.523673057556152</v>
       </c>
       <c r="D4" t="n">
-        <v>4.356465816497803</v>
+        <v>5.953047752380371</v>
       </c>
       <c r="E4" t="n">
-        <v>4.929330825805664</v>
+        <v>3.276031017303467</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.1142318025231361</v>
+        <v>0.0104356142692267</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7016296386718748</v>
+        <v>0.1928298026323316</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.02428189354638253</v>
+        <v>0.05640322466691333</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-2.089807510375977</v>
+        <v>-1.70257568359375</v>
       </c>
       <c r="D5" t="n">
-        <v>4.590486526489258</v>
+        <v>5.600172996520996</v>
       </c>
       <c r="E5" t="n">
-        <v>3.296045064926147</v>
+        <v>2.819403648376465</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1870265710684987</v>
+        <v>-0.06894293137722546</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3141374455557933</v>
+        <v>0.4565708637237548</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.07030040708680932</v>
+        <v>-0.01043561432096691</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.39794921875</v>
+        <v>-2.645308017730713</v>
       </c>
       <c r="D6" t="n">
-        <v>4.069095611572266</v>
+        <v>5.044093132019043</v>
       </c>
       <c r="E6" t="n">
-        <v>1.278849601745606</v>
+        <v>3.529041290283203</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2358618444866612</v>
+        <v>-0.1226312004857593</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1830220156245763</v>
+        <v>0.687206427256266</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.1438248223728607</v>
+        <v>-0.03962139785289762</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-3.00772476196289</v>
+        <v>-3.1694655418396</v>
       </c>
       <c r="D7" t="n">
-        <v>5.029564380645752</v>
+        <v>4.356465816497803</v>
       </c>
       <c r="E7" t="n">
-        <v>1.58430814743042</v>
+        <v>4.929330825805664</v>
       </c>
       <c r="F7" t="n">
-        <v>1.112385630607605</v>
+        <v>-0.1142318025231361</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2183843255043029</v>
+        <v>0.7016296386718748</v>
       </c>
       <c r="H7" t="n">
-        <v>0.607810914516449</v>
+        <v>-0.02428189354638253</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>33.09199142456055</v>
+        <v>-2.089807510375977</v>
       </c>
       <c r="D8" t="n">
-        <v>-10.01467895507812</v>
+        <v>4.590486526489258</v>
       </c>
       <c r="E8" t="n">
-        <v>-16.84671211242676</v>
+        <v>3.296045064926147</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.630127814080975</v>
+        <v>-0.1870265710684987</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8663087487220751</v>
+        <v>0.3141374455557933</v>
       </c>
       <c r="H8" t="n">
-        <v>-6.891578257083879</v>
+        <v>-0.07030040708680932</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3.325568199157715</v>
+        <v>0.39794921875</v>
       </c>
       <c r="D9" t="n">
-        <v>4.143693923950195</v>
+        <v>4.069095611572266</v>
       </c>
       <c r="E9" t="n">
-        <v>-3.819637060165405</v>
+        <v>1.278849601745606</v>
       </c>
       <c r="F9" t="n">
-        <v>-3.291155205832588</v>
+        <v>-0.2358618444866612</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5995133320490518</v>
+        <v>-0.1830220156245763</v>
       </c>
       <c r="H9" t="n">
-        <v>-2.225110616948866</v>
+        <v>-0.1438248223728607</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3.224846839904785</v>
+        <v>-3.00772476196289</v>
       </c>
       <c r="D10" t="n">
-        <v>1.793932437896728</v>
+        <v>5.029564380645752</v>
       </c>
       <c r="E10" t="n">
-        <v>-2.69331693649292</v>
+        <v>1.58430814743042</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.800487955411278</v>
+        <v>1.112385630607605</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.09544769922892193</v>
+        <v>0.2183843255043029</v>
       </c>
       <c r="H10" t="n">
-        <v>-1.274875779946644</v>
+        <v>0.607810914516449</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2.882630348205566</v>
+        <v>33.09199142456055</v>
       </c>
       <c r="D11" t="n">
-        <v>4.272110939025879</v>
+        <v>-10.01467895507812</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.869328737258911</v>
+        <v>-16.84671211242676</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1234287155999069</v>
+        <v>-1.630127814080975</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.4942069583468969</v>
+        <v>0.8663087487220751</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.08613203631506727</v>
+        <v>-6.891578257083879</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2.976715087890625</v>
+        <v>3.325568199157715</v>
       </c>
       <c r="D12" t="n">
-        <v>6.577001571655273</v>
+        <v>4.143693923950195</v>
       </c>
       <c r="E12" t="n">
-        <v>-1.940046072006226</v>
+        <v>-3.819637060165405</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.5099027951558444</v>
+        <v>-3.291155205832588</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.4140478637483376</v>
+        <v>0.5995133320490518</v>
       </c>
       <c r="H12" t="n">
-        <v>1.050213085280524</v>
+        <v>-2.225110616948866</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2.454836368560791</v>
+        <v>3.224846839904785</v>
       </c>
       <c r="D13" t="n">
-        <v>4.527934551239014</v>
+        <v>1.793932437896728</v>
       </c>
       <c r="E13" t="n">
-        <v>-2.188196420669556</v>
+        <v>-2.69331693649292</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.6214535633722948</v>
+        <v>-0.800487955411278</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.1743511259555818</v>
+        <v>-0.09544769922892193</v>
       </c>
       <c r="H13" t="n">
-        <v>0.645531852419179</v>
+        <v>-1.274875779946644</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2.034732341766357</v>
+        <v>2.882630348205566</v>
       </c>
       <c r="D14" t="n">
-        <v>4.516598701477051</v>
+        <v>4.272110939025879</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.3588785529136657</v>
+        <v>-1.869328737258911</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1061547994613655</v>
+        <v>0.1234287155999069</v>
       </c>
       <c r="G14" t="n">
-        <v>0.01274332404136612</v>
+        <v>-0.4942069583468969</v>
       </c>
       <c r="H14" t="n">
-        <v>0.05855822087162051</v>
+        <v>-0.08613203631506727</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4.095149040222168</v>
+        <v>2.976715087890625</v>
       </c>
       <c r="D15" t="n">
-        <v>5.130582809448242</v>
+        <v>6.577001571655273</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5939804911613464</v>
+        <v>-1.940046072006226</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5697166919708249</v>
+        <v>-0.5099027951558444</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4329677091704473</v>
+        <v>-0.4140478637483376</v>
       </c>
       <c r="H15" t="n">
-        <v>0.2033163110415139</v>
+        <v>1.050213085280524</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2.312179088592529</v>
+        <v>2.454836368560791</v>
       </c>
       <c r="D16" t="n">
-        <v>5.563103199005127</v>
+        <v>4.527934551239014</v>
       </c>
       <c r="E16" t="n">
-        <v>1.712265014648438</v>
+        <v>-2.188196420669556</v>
       </c>
       <c r="F16" t="n">
-        <v>1.08963084220886</v>
+        <v>-0.6214535633722948</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7141014933586107</v>
+        <v>-0.1743511259555818</v>
       </c>
       <c r="H16" t="n">
-        <v>0.3845396637916556</v>
+        <v>0.645531852419179</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1.977899074554444</v>
+        <v>2.034732341766357</v>
       </c>
       <c r="D17" t="n">
-        <v>4.791732311248779</v>
+        <v>4.516598701477051</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.6301236748695374</v>
+        <v>-0.3588785529136657</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9240185154808892</v>
+        <v>-0.1061547994613655</v>
       </c>
       <c r="G17" t="n">
-        <v>1.187182711230384</v>
+        <v>0.01274332404136612</v>
       </c>
       <c r="H17" t="n">
-        <v>0.07666358682844371</v>
+        <v>0.05855822087162051</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2.052878379821777</v>
+        <v>4.095149040222168</v>
       </c>
       <c r="D18" t="n">
-        <v>5.11078691482544</v>
+        <v>5.130582809448242</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0908882766962051</v>
+        <v>0.5939804911613464</v>
       </c>
       <c r="F18" t="n">
-        <v>0.4859263300895685</v>
+        <v>0.5697166919708249</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.0002714759773692066</v>
+        <v>0.4329677091704473</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.3303932597239817</v>
+        <v>0.2033163110415139</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1.723348617553711</v>
+        <v>2.312179088592529</v>
       </c>
       <c r="D19" t="n">
-        <v>5.65248441696167</v>
+        <v>5.563103199005127</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.2401915490627288</v>
+        <v>1.712265014648438</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1978694349527355</v>
+        <v>1.08963084220886</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.3554217517375946</v>
+        <v>0.7141014933586107</v>
       </c>
       <c r="H19" t="n">
-        <v>0.06490443150202541</v>
+        <v>0.3845396637916556</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1.41374397277832</v>
+        <v>1.977899074554444</v>
       </c>
       <c r="D20" t="n">
-        <v>6.106224536895752</v>
+        <v>4.791732311248779</v>
       </c>
       <c r="E20" t="n">
-        <v>-1.353671789169312</v>
+        <v>-0.6301236748695374</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.01489832335048191</v>
+        <v>0.9240185154808892</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.2175528672006401</v>
+        <v>1.187182711230384</v>
       </c>
       <c r="H20" t="n">
-        <v>0.293826182683309</v>
+        <v>0.07666358682844371</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,302 @@
         </is>
       </c>
       <c r="C21" t="n">
+        <v>2.052878379821777</v>
+      </c>
+      <c r="D21" t="n">
+        <v>5.11078691482544</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.0908882766962051</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.4859263300895685</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-0.0002714759773692066</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-0.3303932597239817</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1.723348617553711</v>
+      </c>
+      <c r="D22" t="n">
+        <v>5.65248441696167</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-0.2401915490627288</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.1978694349527355</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-0.3554217517375946</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.06490443150202541</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1.41374397277832</v>
+      </c>
+      <c r="D23" t="n">
+        <v>6.106224536895752</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-1.353671789169312</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-0.01489832335048191</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-0.2175528672006401</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.293826182683309</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
         <v>1.950338363647461</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D24" t="n">
         <v>5.651811122894287</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E24" t="n">
         <v>-0.6365897655487061</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F24" t="n">
         <v>-0.1349672807587516</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G24" t="n">
         <v>-0.006057749191920411</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H24" t="n">
         <v>0.07683327462938183</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1.72843074798584</v>
+      </c>
+      <c r="D25" t="n">
+        <v>5.596723556518555</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-0.66290283203125</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-0.168751522898674</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.04469497253497444</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-0.09234245866537093</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1.581844329833984</v>
+      </c>
+      <c r="D26" t="n">
+        <v>5.306270599365234</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-0.953785240650177</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-0.1727900256713232</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-0.1038810287912686</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.06023810141616398</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>1.586828231811523</v>
+      </c>
+      <c r="D27" t="n">
+        <v>5.404983997344971</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-0.8601570129394531</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-0.09510832776625952</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-0.07622240483760839</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.01844473597076204</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>1.426663398742676</v>
+      </c>
+      <c r="D28" t="n">
+        <v>5.44196891784668</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-0.7858069539070129</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-0.0361937656998634</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.0348193198442459</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-0.0697913542389869</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>1.610628128051758</v>
+      </c>
+      <c r="D29" t="n">
+        <v>5.431691646575928</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-0.8632726669311523</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-0.03700825323661167</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.04744386838542084</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.007177666657500789</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1.379239082336426</v>
+      </c>
+      <c r="D30" t="n">
+        <v>5.286327838897705</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-0.7818757295608521</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-0.0347344755298561</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.06149377011590525</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.0545706277092296</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>1.496992111206055</v>
+      </c>
+      <c r="D31" t="n">
+        <v>5.291580200195312</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-0.7745996713638306</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-0.01959859269360693</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.00315613796313606</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.01527163075904057</v>
       </c>
     </row>
   </sheetData>
